--- a/BalBot/TM4C Pin Diagram.xlsx
+++ b/BalBot/TM4C Pin Diagram.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F1C34A-C8B9-4366-BF1C-24E424E9CECA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F3F1C34A-C8B9-4366-BF1C-24E424E9CECA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{633B05FB-468C-48F3-82C3-019188595C6A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,15 +370,9 @@
     <t>Main Oscillator 0</t>
   </si>
   <si>
-    <t>PD4/USB0_DM</t>
-  </si>
-  <si>
     <t>USB 0 Data Minus</t>
   </si>
   <si>
-    <t>PD5/USB0_DP</t>
-  </si>
-  <si>
     <t>USB 0 Data Plus</t>
   </si>
   <si>
@@ -530,6 +524,12 @@
   </si>
   <si>
     <t>User Red LED, cut jumper for: GPIO, PWM Output (M1P5)</t>
+  </si>
+  <si>
+    <t>USB0_D+</t>
+  </si>
+  <si>
+    <t>USB0_D-</t>
   </si>
 </sst>
 </file>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,7 +1100,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>2</v>
@@ -1356,10 +1356,10 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
@@ -1410,10 +1410,10 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1431,7 +1431,7 @@
         <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1449,7 +1449,7 @@
         <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1536,10 +1536,10 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1554,10 +1554,10 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1649,7 +1649,7 @@
         <v>105</v>
       </c>
       <c r="E31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1664,10 +1664,10 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1682,10 +1682,10 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1900,10 +1900,10 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
+        <v>169</v>
+      </c>
+      <c r="E45" t="s">
         <v>116</v>
-      </c>
-      <c r="E45" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1918,10 +1918,10 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="E46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1936,10 +1936,10 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E47" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1954,10 +1954,10 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E48" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1972,10 +1972,10 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" t="s">
         <v>124</v>
-      </c>
-      <c r="E49" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1990,10 +1990,10 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" t="s">
         <v>125</v>
-      </c>
-      <c r="E50" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2008,10 +2008,10 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2026,10 +2026,10 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E52" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2044,10 +2044,10 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2062,10 +2062,10 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E54" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2080,10 +2080,10 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E55" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2155,10 +2155,10 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
+        <v>136</v>
+      </c>
+      <c r="E59" t="s">
         <v>138</v>
-      </c>
-      <c r="E59" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2173,10 +2173,10 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
+        <v>137</v>
+      </c>
+      <c r="E60" t="s">
         <v>139</v>
-      </c>
-      <c r="E60" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2191,10 +2191,10 @@
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E61" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2209,10 +2209,10 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2227,10 +2227,10 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E63" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2245,10 +2245,10 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E64" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2263,10 +2263,10 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E65" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2281,10 +2281,10 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
